--- a/biology/Botanique/La_Dégustation/La_Dégustation.xlsx
+++ b/biology/Botanique/La_Dégustation/La_Dégustation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_D%C3%A9gustation</t>
+          <t>La_Dégustation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Dégustation est une pièce de théâtre d'Ivan Calbérac créée en 2019 au théâtre de la Renaissance. Il s'agit d'une comédie romantique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_D%C3%A9gustation</t>
+          <t>La_Dégustation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Argument</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une comédie romantique. Plusieurs personnes d'horizons différents sont réunies chez un caviste : Jacques, un caviste divorcé qui tient sa petite boutique de commerce de vins, Steve, un jeune en liberté conditionnelle, et Hortense, célibataire très engagée dans le monde associatif. Celle-ci s'inscrit à un atelier d'initiation à la dégustation de vin dans la boutique de Jacques. Les personnalités, l'univers et l'expérience de la vie de ces trois personnages sont extrêmement différents : presque tout les oppose.
-Pour que Jacques et Hortense parviennent à s'entendre, il va falloir un déclic et Steve va provoquer ce déclic entre eux[1].
+Pour que Jacques et Hortense parviennent à s'entendre, il va falloir un déclic et Steve va provoquer ce déclic entre eux.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_D%C3%A9gustation</t>
+          <t>La_Dégustation</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Distribution (2019)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Isabelle Carré
 Bernard Campan
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_D%C3%A9gustation</t>
+          <t>La_Dégustation</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,10 +593,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Molières 2019[2]
-Molière de la comédie[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Molières 2019
+Molière de la comédie
 Nommé au Molière de la comédienne dans un spectacle de théâtre privé pour Isabelle Carré
 Nommé au Molière du comédien dans un spectacle de théâtre privé pour Bernard Campan
 Nommé au Molière du comédien dans un second rôle pour Olivier Claverie</t>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>La_D%C3%A9gustation</t>
+          <t>La_Dégustation</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,9 +629,11 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Catherine Schwaab pour Paris Match qualifie la pièce de «  bijou de précision, de finesse, de répliques hilarantes et de moments suspendus »[1]&gt;. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Catherine Schwaab pour Paris Match qualifie la pièce de «  bijou de précision, de finesse, de répliques hilarantes et de moments suspendus »&gt;. 
 </t>
         </is>
       </c>
@@ -624,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>La_D%C3%A9gustation</t>
+          <t>La_Dégustation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,7 +662,9 @@
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La pièce de théâtre est adaptée pour le cinéma en 2022 sous le même titre, La Dégustation, réalisé par Ivan Calbérac.
 </t>
